--- a/PIB_original.xlsx
+++ b/PIB_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulogarridogrijalva/programación I/proj-y-pib2code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C089F5B8-67B2-F045-BC14-15DD6B02F93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC01ADE3-F62B-E741-9795-36A0FBD4F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/PIB_original.xlsx
+++ b/PIB_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulogarridogrijalva/programación I/proj-y-pib2code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC01ADE3-F62B-E741-9795-36A0FBD4F0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E496DD8B-DB8E-544F-912F-AF7FFEC3103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,24 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
   <si>
     <t>quarter</t>
-  </si>
-  <si>
-    <t>1T</t>
-  </si>
-  <si>
-    <t>2T</t>
-  </si>
-  <si>
-    <t>3T</t>
-  </si>
-  <si>
-    <t>4T</t>
   </si>
   <si>
     <t>PIB_nominal</t>
@@ -131,10 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +432,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -469,36 +460,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2013</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>97848.150170798952</v>
@@ -529,8 +520,8 @@
       <c r="A3">
         <v>2013</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="2">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>96195.177185076915</v>
@@ -561,8 +552,8 @@
       <c r="A4">
         <v>2013</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4" s="2">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>96182.959815232171</v>
@@ -593,8 +584,8 @@
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5" s="2">
+        <v>4</v>
       </c>
       <c r="C5">
         <v>101791.881031278</v>
@@ -625,8 +616,8 @@
       <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
+      <c r="B6" s="2">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>103062.51939687559</v>
@@ -657,8 +648,8 @@
       <c r="A7">
         <v>2014</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="B7" s="2">
+        <v>2</v>
       </c>
       <c r="C7">
         <v>102997.1075668401</v>
@@ -689,8 +680,8 @@
       <c r="A8">
         <v>2014</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
+      <c r="B8" s="2">
+        <v>3</v>
       </c>
       <c r="C8">
         <v>104833.39484437073</v>
@@ -721,8 +712,8 @@
       <c r="A9">
         <v>2014</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="B9" s="2">
+        <v>4</v>
       </c>
       <c r="C9">
         <v>110335.39370824692</v>
@@ -753,8 +744,8 @@
       <c r="A10">
         <v>2015</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
+      <c r="B10" s="2">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>111083.02420960358</v>
@@ -785,8 +776,8 @@
       <c r="A11">
         <v>2015</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11" s="2">
+        <v>2</v>
       </c>
       <c r="C11">
         <v>109340.02442934189</v>
@@ -817,8 +808,8 @@
       <c r="A12">
         <v>2015</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
+      <c r="B12" s="2">
+        <v>3</v>
       </c>
       <c r="C12">
         <v>111780.57823838478</v>
@@ -849,8 +840,8 @@
       <c r="A13">
         <v>2015</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
+      <c r="B13" s="2">
+        <v>4</v>
       </c>
       <c r="C13">
         <v>115988.63580391223</v>
@@ -881,8 +872,8 @@
       <c r="A14">
         <v>2016</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
+      <c r="B14" s="2">
+        <v>1</v>
       </c>
       <c r="C14">
         <v>116737.94591544344</v>
@@ -913,8 +904,8 @@
       <c r="A15">
         <v>2016</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
+      <c r="B15" s="2">
+        <v>2</v>
       </c>
       <c r="C15">
         <v>115444.96847461874</v>
@@ -945,8 +936,8 @@
       <c r="A16">
         <v>2016</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
+      <c r="B16" s="2">
+        <v>3</v>
       </c>
       <c r="C16">
         <v>117267.86879853724</v>
@@ -977,8 +968,8 @@
       <c r="A17">
         <v>2016</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
+      <c r="B17" s="2">
+        <v>4</v>
       </c>
       <c r="C17">
         <v>123247.47580989091</v>
@@ -1009,8 +1000,8 @@
       <c r="A18">
         <v>2017</v>
       </c>
-      <c r="B18" t="s">
-        <v>2</v>
+      <c r="B18" s="2">
+        <v>1</v>
       </c>
       <c r="C18">
         <v>123965.6780548345</v>
@@ -1041,8 +1032,8 @@
       <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
+      <c r="B19" s="2">
+        <v>2</v>
       </c>
       <c r="C19">
         <v>120064.85134609429</v>
@@ -1073,8 +1064,8 @@
       <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
+      <c r="B20" s="2">
+        <v>3</v>
       </c>
       <c r="C20">
         <v>122651.24171069059</v>
@@ -1105,8 +1096,8 @@
       <c r="A21">
         <v>2017</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
+      <c r="B21" s="2">
+        <v>4</v>
       </c>
       <c r="C21">
         <v>128631.76527666379</v>
@@ -1137,8 +1128,8 @@
       <c r="A22">
         <v>2018</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
+      <c r="B22" s="2">
+        <v>1</v>
       </c>
       <c r="C22">
         <v>128740.31349963276</v>
@@ -1169,8 +1160,8 @@
       <c r="A23">
         <v>2018</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
+      <c r="B23" s="2">
+        <v>2</v>
       </c>
       <c r="C23">
         <v>126352.72434997522</v>
@@ -1201,8 +1192,8 @@
       <c r="A24">
         <v>2018</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
+      <c r="B24" s="2">
+        <v>3</v>
       </c>
       <c r="C24">
         <v>128176.37032065078</v>
@@ -1233,8 +1224,8 @@
       <c r="A25">
         <v>2018</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
+      <c r="B25" s="2">
+        <v>4</v>
       </c>
       <c r="C25">
         <v>134580.9067203447</v>
@@ -1265,8 +1256,8 @@
       <c r="A26">
         <v>2019</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
+      <c r="B26" s="2">
+        <v>1</v>
       </c>
       <c r="C26">
         <v>135944.1003417001</v>
@@ -1297,8 +1288,8 @@
       <c r="A27">
         <v>2019</v>
       </c>
-      <c r="B27" t="s">
-        <v>3</v>
+      <c r="B27" s="2">
+        <v>2</v>
       </c>
       <c r="C27">
         <v>136012.86698476723</v>
@@ -1329,8 +1320,8 @@
       <c r="A28">
         <v>2019</v>
       </c>
-      <c r="B28" t="s">
-        <v>4</v>
+      <c r="B28" s="2">
+        <v>3</v>
       </c>
       <c r="C28">
         <v>138701.97496113001</v>
@@ -1361,8 +1352,8 @@
       <c r="A29">
         <v>2019</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
+      <c r="B29" s="2">
+        <v>4</v>
       </c>
       <c r="C29">
         <v>146923.90459881377</v>
@@ -1393,8 +1384,8 @@
       <c r="A30">
         <v>2020</v>
       </c>
-      <c r="B30" t="s">
-        <v>2</v>
+      <c r="B30" s="2">
+        <v>1</v>
       </c>
       <c r="C30">
         <v>142075.28217661558</v>
@@ -1425,8 +1416,8 @@
       <c r="A31">
         <v>2020</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
+      <c r="B31" s="2">
+        <v>2</v>
       </c>
       <c r="C31">
         <v>129190.69092959326</v>
@@ -1457,8 +1448,8 @@
       <c r="A32">
         <v>2020</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
+      <c r="B32" s="2">
+        <v>3</v>
       </c>
       <c r="C32">
         <v>141728.90568868973</v>
@@ -1489,8 +1480,8 @@
       <c r="A33">
         <v>2020</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
+      <c r="B33" s="2">
+        <v>4</v>
       </c>
       <c r="C33">
         <v>152825.27822929824</v>
@@ -1521,8 +1512,8 @@
       <c r="A34">
         <v>2021</v>
       </c>
-      <c r="B34" t="s">
-        <v>2</v>
+      <c r="B34" s="2">
+        <v>1</v>
       </c>
       <c r="C34">
         <v>152414.73568371442</v>
@@ -1553,8 +1544,8 @@
       <c r="A35">
         <v>2021</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
+      <c r="B35" s="2">
+        <v>2</v>
       </c>
       <c r="C35">
         <v>151014.17326490532</v>
@@ -1585,8 +1576,8 @@
       <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B36" t="s">
-        <v>4</v>
+      <c r="B36" s="2">
+        <v>3</v>
       </c>
       <c r="C36">
         <v>155744.20759039733</v>
@@ -1617,8 +1608,8 @@
       <c r="A37">
         <v>2021</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
+      <c r="B37" s="2">
+        <v>4</v>
       </c>
       <c r="C37">
         <v>165207.92040334456</v>
@@ -1649,8 +1640,8 @@
       <c r="A38">
         <v>2022</v>
       </c>
-      <c r="B38" t="s">
-        <v>2</v>
+      <c r="B38" s="2">
+        <v>1</v>
       </c>
       <c r="C38">
         <v>167010.99967256116</v>
@@ -1681,8 +1672,8 @@
       <c r="A39">
         <v>2022</v>
       </c>
-      <c r="B39" t="s">
-        <v>3</v>
+      <c r="B39" s="2">
+        <v>2</v>
       </c>
       <c r="C39">
         <v>168124.88193274708</v>
@@ -1713,8 +1704,8 @@
       <c r="A40">
         <v>2022</v>
       </c>
-      <c r="B40" t="s">
-        <v>4</v>
+      <c r="B40" s="2">
+        <v>3</v>
       </c>
       <c r="C40">
         <v>173877.27866080884</v>
@@ -1745,8 +1736,8 @@
       <c r="A41">
         <v>2022</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
+      <c r="B41" s="2">
+        <v>4</v>
       </c>
       <c r="C41">
         <v>183543.09156990668</v>
@@ -1777,8 +1768,8 @@
       <c r="A42">
         <v>2023</v>
       </c>
-      <c r="B42" t="s">
-        <v>2</v>
+      <c r="B42" s="2">
+        <v>1</v>
       </c>
       <c r="C42">
         <v>187384.1210121958</v>
@@ -1809,8 +1800,8 @@
       <c r="A43">
         <v>2023</v>
       </c>
-      <c r="B43" t="s">
-        <v>3</v>
+      <c r="B43" s="2">
+        <v>2</v>
       </c>
       <c r="C43">
         <v>186760.21718349977</v>
@@ -1841,8 +1832,8 @@
       <c r="A44">
         <v>2023</v>
       </c>
-      <c r="B44" t="s">
-        <v>4</v>
+      <c r="B44" s="2">
+        <v>3</v>
       </c>
       <c r="C44">
         <v>189870.0964810788</v>
@@ -1873,8 +1864,8 @@
       <c r="A45">
         <v>2023</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
+      <c r="B45" s="2">
+        <v>4</v>
       </c>
       <c r="C45">
         <v>199419.73469973</v>
@@ -1905,8 +1896,8 @@
       <c r="A46">
         <v>2024</v>
       </c>
-      <c r="B46" t="s">
-        <v>2</v>
+      <c r="B46" s="2">
+        <v>1</v>
       </c>
       <c r="C46">
         <v>199701.7261358017</v>
@@ -1937,8 +1928,8 @@
       <c r="A47">
         <v>2024</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
+      <c r="B47" s="2">
+        <v>2</v>
       </c>
       <c r="C47">
         <v>198456.76615300961</v>
@@ -1969,8 +1960,8 @@
       <c r="A48">
         <v>2024</v>
       </c>
-      <c r="B48" t="s">
-        <v>4</v>
+      <c r="B48" s="2">
+        <v>3</v>
       </c>
       <c r="C48">
         <v>204593.86430725164</v>
@@ -2001,8 +1992,8 @@
       <c r="A49">
         <v>2024</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
+      <c r="B49" s="2">
+        <v>4</v>
       </c>
       <c r="C49">
         <v>217146.16224553017</v>
